--- a/data/pca/factorExposure/factorExposure_2010-03-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0152641594274642</v>
+        <v>0.01704920573553751</v>
       </c>
       <c r="C2">
-        <v>-0.003979300224778979</v>
+        <v>-0.0009518147404321516</v>
       </c>
       <c r="D2">
-        <v>-0.0124923873202733</v>
+        <v>-0.007511557825401897</v>
       </c>
       <c r="E2">
-        <v>-0.01698689387542123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0001571780425858714</v>
+      </c>
+      <c r="F2">
+        <v>-0.009074520324306709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1245330506135047</v>
+        <v>0.0937409481537404</v>
       </c>
       <c r="C4">
-        <v>-0.03448361913897636</v>
+        <v>-0.01576471473143897</v>
       </c>
       <c r="D4">
-        <v>-0.05500803165649381</v>
+        <v>-0.08413538498513647</v>
       </c>
       <c r="E4">
-        <v>-0.006630086218069664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02971420914103436</v>
+      </c>
+      <c r="F4">
+        <v>0.02899624012107006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1126816406696728</v>
+        <v>0.1554145207084182</v>
       </c>
       <c r="C6">
-        <v>0.01629554365891249</v>
+        <v>-0.02456041236968519</v>
       </c>
       <c r="D6">
-        <v>0.007388279020879791</v>
+        <v>0.0224033263283508</v>
       </c>
       <c r="E6">
-        <v>-0.01877793288439721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01069870608358297</v>
+      </c>
+      <c r="F6">
+        <v>0.0489319510178175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07669728755584103</v>
+        <v>0.05965345967458695</v>
       </c>
       <c r="C7">
-        <v>-0.01245566870589362</v>
+        <v>0.001038560058508432</v>
       </c>
       <c r="D7">
-        <v>-0.07223624301391748</v>
+        <v>-0.05292781630751662</v>
       </c>
       <c r="E7">
-        <v>-0.05280771327165918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01326563349955699</v>
+      </c>
+      <c r="F7">
+        <v>0.0443332613968812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05032244227075112</v>
+        <v>0.05798175910361398</v>
       </c>
       <c r="C8">
-        <v>-0.002250835442434759</v>
+        <v>0.01336261917884941</v>
       </c>
       <c r="D8">
-        <v>-0.02245019146924944</v>
+        <v>-0.03144662992998842</v>
       </c>
       <c r="E8">
-        <v>-0.01966437675668063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01563090112118197</v>
+      </c>
+      <c r="F8">
+        <v>-0.02905572246616118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09458819715826097</v>
+        <v>0.07142878128893042</v>
       </c>
       <c r="C9">
-        <v>-0.04371742100059742</v>
+        <v>-0.01173531009115296</v>
       </c>
       <c r="D9">
-        <v>-0.03548844219162681</v>
+        <v>-0.0842323648301333</v>
       </c>
       <c r="E9">
-        <v>-0.0179835515987827</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02385093934008241</v>
+      </c>
+      <c r="F9">
+        <v>0.04890926884745117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08113098304123008</v>
+        <v>0.09517861378272596</v>
       </c>
       <c r="C10">
-        <v>0.1326830627703436</v>
+        <v>-0.01811900701662271</v>
       </c>
       <c r="D10">
-        <v>0.1261679324960326</v>
+        <v>0.1696491749901999</v>
       </c>
       <c r="E10">
-        <v>-0.009937582975848951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03821354920968854</v>
+      </c>
+      <c r="F10">
+        <v>-0.05593714555407432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08609453084729575</v>
+        <v>0.08736709246146429</v>
       </c>
       <c r="C11">
-        <v>-0.01761122749535657</v>
+        <v>-0.01145856970895738</v>
       </c>
       <c r="D11">
-        <v>-0.05402352172400028</v>
+        <v>-0.1165733673390195</v>
       </c>
       <c r="E11">
-        <v>-0.04075062088740064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04753757662902326</v>
+      </c>
+      <c r="F11">
+        <v>0.02004468819043463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09225906768080835</v>
+        <v>0.09177250694928624</v>
       </c>
       <c r="C12">
-        <v>-0.02815348917000253</v>
+        <v>-0.008960113002960624</v>
       </c>
       <c r="D12">
-        <v>-0.07525882269154201</v>
+        <v>-0.1277080597594885</v>
       </c>
       <c r="E12">
-        <v>-0.04477808984597172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04777689043631814</v>
+      </c>
+      <c r="F12">
+        <v>0.01917066824935957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04252764548266168</v>
+        <v>0.04363787449863658</v>
       </c>
       <c r="C13">
-        <v>-0.03669163357679529</v>
+        <v>-0.004005731012836957</v>
       </c>
       <c r="D13">
-        <v>0.002071303482084185</v>
+        <v>-0.04880113471134881</v>
       </c>
       <c r="E13">
-        <v>-0.004547158753466414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01256040275342072</v>
+      </c>
+      <c r="F13">
+        <v>0.009120913901048331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02698273500589981</v>
+        <v>0.02255045869122852</v>
       </c>
       <c r="C14">
-        <v>-0.0006837762571163264</v>
+        <v>-0.01410914688169139</v>
       </c>
       <c r="D14">
-        <v>-0.007522632939020903</v>
+        <v>-0.03237792856090838</v>
       </c>
       <c r="E14">
-        <v>-0.005865983545620558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01765602601518286</v>
+      </c>
+      <c r="F14">
+        <v>0.01731038727409972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02728357325512822</v>
+        <v>0.03118855690140274</v>
       </c>
       <c r="C15">
-        <v>-0.01943404414882258</v>
+        <v>-0.005297860852900496</v>
       </c>
       <c r="D15">
-        <v>-0.004210601376456072</v>
+        <v>-0.0448828657992236</v>
       </c>
       <c r="E15">
-        <v>-0.01985394869436836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.00754651856187535</v>
+      </c>
+      <c r="F15">
+        <v>0.02826349861993731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09379609638915259</v>
+        <v>0.07286451945955971</v>
       </c>
       <c r="C16">
-        <v>-0.0127673722701736</v>
+        <v>-0.002946452863712726</v>
       </c>
       <c r="D16">
-        <v>-0.07066231894778932</v>
+        <v>-0.1235193137304615</v>
       </c>
       <c r="E16">
-        <v>-0.05030044266941504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.06296975877970427</v>
+      </c>
+      <c r="F16">
+        <v>0.02510719776108611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02542514055374578</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003962857905870237</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02220789044382049</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.005022815568026</v>
+      </c>
+      <c r="F18">
+        <v>-0.01650992715965945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05133053053215141</v>
+        <v>0.06027000356385957</v>
       </c>
       <c r="C20">
-        <v>0.0020806046503725</v>
+        <v>-0.0003792304609733086</v>
       </c>
       <c r="D20">
-        <v>-0.04541474815500587</v>
+        <v>-0.07681449119559407</v>
       </c>
       <c r="E20">
-        <v>0.000779526481258066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0557533648988551</v>
+      </c>
+      <c r="F20">
+        <v>0.02358770665632189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02129309466998335</v>
+        <v>0.03874013062817113</v>
       </c>
       <c r="C21">
-        <v>0.005534186216916159</v>
+        <v>-0.00670057835601702</v>
       </c>
       <c r="D21">
-        <v>-0.002384195331384544</v>
+        <v>-0.03560254996621036</v>
       </c>
       <c r="E21">
-        <v>0.02972550635656844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.008003813721108071</v>
+      </c>
+      <c r="F21">
+        <v>-0.02072596070706058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0297376069328715</v>
+        <v>0.04347927839158224</v>
       </c>
       <c r="C22">
-        <v>0.01273814121454309</v>
+        <v>-0.001236649331162778</v>
       </c>
       <c r="D22">
-        <v>0.02182947917558455</v>
+        <v>-0.002694304477238195</v>
       </c>
       <c r="E22">
-        <v>-0.06999400475118822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02900486555100693</v>
+      </c>
+      <c r="F22">
+        <v>-0.00899314070795766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02982486931597449</v>
+        <v>0.04351273369808727</v>
       </c>
       <c r="C23">
-        <v>0.0128354579125476</v>
+        <v>-0.001257524378975441</v>
       </c>
       <c r="D23">
-        <v>0.02141236315284014</v>
+        <v>-0.002787003075262468</v>
       </c>
       <c r="E23">
-        <v>-0.07201801048301766</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02931423120911027</v>
+      </c>
+      <c r="F23">
+        <v>-0.008448603866254624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09653889090147726</v>
+        <v>0.07918254508531354</v>
       </c>
       <c r="C24">
-        <v>-0.01869826309984952</v>
+        <v>-0.003034564963931397</v>
       </c>
       <c r="D24">
-        <v>-0.07270836491171002</v>
+        <v>-0.120106628857105</v>
       </c>
       <c r="E24">
-        <v>-0.03979847229188507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05056566702183611</v>
+      </c>
+      <c r="F24">
+        <v>0.02242930095326248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09784638155216939</v>
+        <v>0.08461946399289989</v>
       </c>
       <c r="C25">
-        <v>-0.00967761723013673</v>
+        <v>-0.00527343013034867</v>
       </c>
       <c r="D25">
-        <v>-0.05549917046556326</v>
+        <v>-0.1088040298071711</v>
       </c>
       <c r="E25">
-        <v>-0.04636276523028066</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03329157323283225</v>
+      </c>
+      <c r="F25">
+        <v>0.02633437723931985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0391927289730033</v>
+        <v>0.05570585500817653</v>
       </c>
       <c r="C26">
-        <v>0.02902101160262839</v>
+        <v>-0.01446483894574671</v>
       </c>
       <c r="D26">
-        <v>0.001082848089355609</v>
+        <v>-0.04155833580780437</v>
       </c>
       <c r="E26">
-        <v>-0.004836998996084263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02578104024004894</v>
+      </c>
+      <c r="F26">
+        <v>-0.009271370186032392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0796145486147331</v>
+        <v>0.1433693662867281</v>
       </c>
       <c r="C28">
-        <v>0.1707719730473628</v>
+        <v>-0.01693776862322529</v>
       </c>
       <c r="D28">
-        <v>0.2694771850390331</v>
+        <v>0.2646067148844429</v>
       </c>
       <c r="E28">
-        <v>-0.02325475742775794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06850577480539502</v>
+      </c>
+      <c r="F28">
+        <v>0.01974559609046784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02943837118106531</v>
+        <v>0.0271522327078672</v>
       </c>
       <c r="C29">
-        <v>-0.01019749485726966</v>
+        <v>-0.008335840428298172</v>
       </c>
       <c r="D29">
-        <v>-0.002789185672430681</v>
+        <v>-0.03161079555905789</v>
       </c>
       <c r="E29">
-        <v>-0.008403707210784511</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01150433895646503</v>
+      </c>
+      <c r="F29">
+        <v>-0.01264263620668434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1169677328139737</v>
+        <v>0.06187886369266541</v>
       </c>
       <c r="C30">
-        <v>-0.06105271106053369</v>
+        <v>-0.004472545957581152</v>
       </c>
       <c r="D30">
-        <v>-0.06351866853645653</v>
+        <v>-0.08664841803544188</v>
       </c>
       <c r="E30">
-        <v>-0.03668622724306137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02351532487904548</v>
+      </c>
+      <c r="F30">
+        <v>0.09247234301385941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02948936546139432</v>
+        <v>0.04869383675715016</v>
       </c>
       <c r="C31">
-        <v>-0.003662199333155272</v>
+        <v>-0.01500974291109629</v>
       </c>
       <c r="D31">
-        <v>-0.03181536590251514</v>
+        <v>-0.02629937118422242</v>
       </c>
       <c r="E31">
-        <v>-0.02049402188414249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02722197659522649</v>
+      </c>
+      <c r="F31">
+        <v>-0.005687422825232193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06070579837074601</v>
+        <v>0.04874652461986145</v>
       </c>
       <c r="C32">
-        <v>0.009298131279070981</v>
+        <v>0.0006989658654659777</v>
       </c>
       <c r="D32">
-        <v>-0.02684936854378603</v>
+        <v>-0.03388658887087162</v>
       </c>
       <c r="E32">
-        <v>-0.005466215975062944</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.03038593002635814</v>
+      </c>
+      <c r="F32">
+        <v>0.007163182788768524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1065110020390745</v>
+        <v>0.08931542570357377</v>
       </c>
       <c r="C33">
-        <v>-0.04264579220766655</v>
+        <v>-0.008507270229402579</v>
       </c>
       <c r="D33">
-        <v>-0.05387997232923354</v>
+        <v>-0.09787430264983081</v>
       </c>
       <c r="E33">
-        <v>-0.08685425597379562</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04583608200855978</v>
+      </c>
+      <c r="F33">
+        <v>0.03811773516921328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08763610033995485</v>
+        <v>0.06750841651319875</v>
       </c>
       <c r="C34">
-        <v>-0.011948636733583</v>
+        <v>-0.01182275560207857</v>
       </c>
       <c r="D34">
-        <v>-0.06414328233054835</v>
+        <v>-0.103679508135792</v>
       </c>
       <c r="E34">
-        <v>-0.04419341795513432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03500931981916262</v>
+      </c>
+      <c r="F34">
+        <v>0.03594067627323151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01405788694580699</v>
+        <v>0.02491743455249114</v>
       </c>
       <c r="C35">
-        <v>-0.01385305241052595</v>
+        <v>-0.002329463167549571</v>
       </c>
       <c r="D35">
-        <v>-0.00301382689058712</v>
+        <v>-0.01233874932730241</v>
       </c>
       <c r="E35">
-        <v>-0.006318339013601366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01073024294351377</v>
+      </c>
+      <c r="F35">
+        <v>0.006584226962613428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0219394899494865</v>
+        <v>0.0251251781900663</v>
       </c>
       <c r="C36">
-        <v>-0.01047415614686987</v>
+        <v>-0.007470184671121488</v>
       </c>
       <c r="D36">
-        <v>0.002870240169955324</v>
+        <v>-0.03845800179900599</v>
       </c>
       <c r="E36">
-        <v>-0.001529872019786816</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0168207163089217</v>
+      </c>
+      <c r="F36">
+        <v>0.01359187843122247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.006592295020329353</v>
+        <v>0.001502445696227764</v>
       </c>
       <c r="C38">
-        <v>-0.002222926108576268</v>
+        <v>-0.0002291467157043965</v>
       </c>
       <c r="D38">
-        <v>-0.003785166275693579</v>
+        <v>-0.0008404405871291826</v>
       </c>
       <c r="E38">
-        <v>-0.003239902972589464</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001222283055721878</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009976270914464518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1521051695073069</v>
+        <v>0.1069835954952347</v>
       </c>
       <c r="C39">
-        <v>-0.04885946642294303</v>
+        <v>-0.01665342271489068</v>
       </c>
       <c r="D39">
-        <v>-0.1083107346935677</v>
+        <v>-0.1543785570649252</v>
       </c>
       <c r="E39">
-        <v>-0.07621930037575979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0608897288731562</v>
+      </c>
+      <c r="F39">
+        <v>0.02357323034808833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008192272755594516</v>
+        <v>0.0373218964387667</v>
       </c>
       <c r="C40">
-        <v>-0.00419266985515668</v>
+        <v>-0.007199077910269235</v>
       </c>
       <c r="D40">
-        <v>-0.01749640003715925</v>
+        <v>-0.03322915420126314</v>
       </c>
       <c r="E40">
-        <v>0.0142845028589216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.00253852609680873</v>
+      </c>
+      <c r="F40">
+        <v>-0.01548224687047927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01871067217145426</v>
+        <v>0.02645254583178606</v>
       </c>
       <c r="C41">
-        <v>0.02808342635874455</v>
+        <v>-0.006535323794326696</v>
       </c>
       <c r="D41">
-        <v>-0.005872829859306272</v>
+        <v>-0.01078130665010029</v>
       </c>
       <c r="E41">
-        <v>-0.009030073765366813</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0121830175333926</v>
+      </c>
+      <c r="F41">
+        <v>-0.009029076338066272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02809670195321401</v>
+        <v>0.04028413669570884</v>
       </c>
       <c r="C43">
-        <v>0.02632589109297049</v>
+        <v>-0.006646898481931286</v>
       </c>
       <c r="D43">
-        <v>-0.02052648195076534</v>
+        <v>-0.02028123261168935</v>
       </c>
       <c r="E43">
-        <v>-0.03562925835659186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0240592049723645</v>
+      </c>
+      <c r="F43">
+        <v>-0.01326053851650101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1396089585923157</v>
+        <v>0.0759851261860887</v>
       </c>
       <c r="C44">
-        <v>-0.06448119518568601</v>
+        <v>-0.02127420892820853</v>
       </c>
       <c r="D44">
-        <v>-0.08102408255109311</v>
+        <v>-0.0981721390047217</v>
       </c>
       <c r="E44">
-        <v>-0.04674492768894611</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07349276707690562</v>
+      </c>
+      <c r="F44">
+        <v>0.171240257731909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01564295188020966</v>
+        <v>0.02297101478718681</v>
       </c>
       <c r="C46">
-        <v>0.02303682631538525</v>
+        <v>-0.003553828247618618</v>
       </c>
       <c r="D46">
-        <v>0.002321031288424078</v>
+        <v>-0.01235869288096366</v>
       </c>
       <c r="E46">
-        <v>-0.03675916102931542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.022400079169961</v>
+      </c>
+      <c r="F46">
+        <v>-5.470321633443549e-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03816231117787516</v>
+        <v>0.05132065647181543</v>
       </c>
       <c r="C47">
-        <v>0.01018352280923261</v>
+        <v>-0.003211045804448916</v>
       </c>
       <c r="D47">
-        <v>-0.0065297951438434</v>
+        <v>-0.01310831427096655</v>
       </c>
       <c r="E47">
-        <v>-0.006504201626212508</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02263246203083188</v>
+      </c>
+      <c r="F47">
+        <v>-0.03981100587433021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03871388634280035</v>
+        <v>0.04786824337349808</v>
       </c>
       <c r="C48">
-        <v>-0.010926238144204</v>
+        <v>-0.002645841156753979</v>
       </c>
       <c r="D48">
-        <v>0.003795218584984188</v>
+        <v>-0.05148632435513397</v>
       </c>
       <c r="E48">
-        <v>-0.01049575230902863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.005196239824592301</v>
+      </c>
+      <c r="F48">
+        <v>0.006348820749516364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2192578387250297</v>
+        <v>0.2026805718213246</v>
       </c>
       <c r="C49">
-        <v>0.0611164187201588</v>
+        <v>-0.01758787293202688</v>
       </c>
       <c r="D49">
-        <v>-0.02534572407932642</v>
+        <v>0.01085740161157774</v>
       </c>
       <c r="E49">
-        <v>0.02189190807993067</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03253339041065473</v>
+      </c>
+      <c r="F49">
+        <v>0.02911993314004961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03884470222159451</v>
+        <v>0.04847838053838761</v>
       </c>
       <c r="C50">
-        <v>0.00330043455293643</v>
+        <v>-0.01104957196361138</v>
       </c>
       <c r="D50">
-        <v>-0.03736492631056666</v>
+        <v>-0.02587565996239457</v>
       </c>
       <c r="E50">
-        <v>-0.01599948391836895</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02913909684572297</v>
+      </c>
+      <c r="F50">
+        <v>0.006487470260914504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.00883405244319781</v>
+        <v>0.002103467861394845</v>
       </c>
       <c r="C51">
-        <v>0.008752789496762536</v>
+        <v>-0.0005342286916288705</v>
       </c>
       <c r="D51">
-        <v>0.01272964847251971</v>
+        <v>0.002114914067032085</v>
       </c>
       <c r="E51">
-        <v>-0.01530689393071699</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>1.221298180192531e-06</v>
+      </c>
+      <c r="F51">
+        <v>0.004108721778106365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1311707048132452</v>
+        <v>0.1450553836875556</v>
       </c>
       <c r="C52">
-        <v>-0.07187511181537801</v>
+        <v>-0.01385606008280504</v>
       </c>
       <c r="D52">
-        <v>-0.0622853915665942</v>
+        <v>-0.04938530616928835</v>
       </c>
       <c r="E52">
-        <v>0.002167024716059853</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02396317944485774</v>
+      </c>
+      <c r="F52">
+        <v>0.03830227271849741</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1555746346083109</v>
+        <v>0.1737896143118106</v>
       </c>
       <c r="C53">
-        <v>-0.0126037438264527</v>
+        <v>-0.01678153712041184</v>
       </c>
       <c r="D53">
-        <v>-0.01328756688716866</v>
+        <v>-0.008515463753532893</v>
       </c>
       <c r="E53">
-        <v>0.01281722644339829</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03479291168373819</v>
+      </c>
+      <c r="F53">
+        <v>0.06893691615562962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04926680492905637</v>
+        <v>0.02194093508756278</v>
       </c>
       <c r="C54">
-        <v>-0.001480318009278736</v>
+        <v>-0.01226466263724357</v>
       </c>
       <c r="D54">
-        <v>-0.02027398286434348</v>
+        <v>-0.03319471947898725</v>
       </c>
       <c r="E54">
-        <v>-0.01584205472348392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0145065167201636</v>
+      </c>
+      <c r="F54">
+        <v>-0.002927947716011544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08752356878297989</v>
+        <v>0.1143007035870506</v>
       </c>
       <c r="C55">
-        <v>-0.03001755279010266</v>
+        <v>-0.01543397348784923</v>
       </c>
       <c r="D55">
-        <v>-0.006232824327156237</v>
+        <v>-0.01044480088765523</v>
       </c>
       <c r="E55">
-        <v>-0.0392577217566733</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03109936294354169</v>
+      </c>
+      <c r="F55">
+        <v>0.0452359547569905</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1604285426606681</v>
+        <v>0.1774945208186046</v>
       </c>
       <c r="C56">
-        <v>-0.0145928379741695</v>
+        <v>-0.01426033389469499</v>
       </c>
       <c r="D56">
-        <v>-0.04532242631886707</v>
+        <v>-0.006031912468875972</v>
       </c>
       <c r="E56">
-        <v>-0.02186706191395429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04076761981017555</v>
+      </c>
+      <c r="F56">
+        <v>0.04754882423880794</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04212095549927568</v>
+        <v>0.04571840136253129</v>
       </c>
       <c r="C58">
-        <v>0.01242335221584898</v>
+        <v>-0.001338202954635671</v>
       </c>
       <c r="D58">
-        <v>-0.005363912777203793</v>
+        <v>-0.06694555287766644</v>
       </c>
       <c r="E58">
-        <v>0.01000066856962916</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02463760399848824</v>
+      </c>
+      <c r="F58">
+        <v>-0.04082243792317852</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.147040528985708</v>
+        <v>0.1719195037143132</v>
       </c>
       <c r="C59">
-        <v>0.1630597449194134</v>
+        <v>-0.01753777254318644</v>
       </c>
       <c r="D59">
-        <v>0.2319463443560619</v>
+        <v>0.2227071936151822</v>
       </c>
       <c r="E59">
-        <v>-0.03435719938172543</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04705183304230127</v>
+      </c>
+      <c r="F59">
+        <v>-0.03008770691831112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2765929814400101</v>
+        <v>0.2352743660910909</v>
       </c>
       <c r="C60">
-        <v>-0.05205580249257988</v>
+        <v>0.004293424119973238</v>
       </c>
       <c r="D60">
-        <v>-0.08740496744121798</v>
+        <v>-0.0437809225343762</v>
       </c>
       <c r="E60">
-        <v>0.08629181970712065</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01108274011342297</v>
+      </c>
+      <c r="F60">
+        <v>-0.02376387847969207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.117835191210886</v>
+        <v>0.0829352260171724</v>
       </c>
       <c r="C61">
-        <v>-0.04347793292200074</v>
+        <v>-0.01275618512392712</v>
       </c>
       <c r="D61">
-        <v>-0.05475765696311834</v>
+        <v>-0.1158476252371724</v>
       </c>
       <c r="E61">
-        <v>-0.05784083696969018</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04086205355704346</v>
+      </c>
+      <c r="F61">
+        <v>0.01225430893351296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1626771925123512</v>
+        <v>0.1698496095695664</v>
       </c>
       <c r="C62">
-        <v>-0.01213620881595721</v>
+        <v>-0.01781668126704676</v>
       </c>
       <c r="D62">
-        <v>-0.02533082044905621</v>
+        <v>-0.0104348184788124</v>
       </c>
       <c r="E62">
-        <v>-0.007052235534490708</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03690412473585682</v>
+      </c>
+      <c r="F62">
+        <v>0.0292782885683038</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04387712752866269</v>
+        <v>0.04275713466080561</v>
       </c>
       <c r="C63">
-        <v>-0.006562002500146227</v>
+        <v>-0.002655075271195353</v>
       </c>
       <c r="D63">
-        <v>0.003234381519627757</v>
+        <v>-0.05623715759388747</v>
       </c>
       <c r="E63">
-        <v>-0.02481501012124273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02051637242694907</v>
+      </c>
+      <c r="F63">
+        <v>0.006977770955298719</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09279155366168423</v>
+        <v>0.1111276537079775</v>
       </c>
       <c r="C64">
-        <v>0.004175259479397306</v>
+        <v>-0.0111348574267861</v>
       </c>
       <c r="D64">
-        <v>-0.01649445809435776</v>
+        <v>-0.04151588419483297</v>
       </c>
       <c r="E64">
-        <v>-0.001644725719052461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02055776685126303</v>
+      </c>
+      <c r="F64">
+        <v>0.02820478474197047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1139415156290885</v>
+        <v>0.1467728397982875</v>
       </c>
       <c r="C65">
-        <v>-0.01136000300364575</v>
+        <v>-0.0311774224220825</v>
       </c>
       <c r="D65">
-        <v>0.02247190130305772</v>
+        <v>0.04135735177314627</v>
       </c>
       <c r="E65">
-        <v>0.006009876844076579</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.001344109685926216</v>
+      </c>
+      <c r="F65">
+        <v>0.04340556108185443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1738005805115366</v>
+        <v>0.1276973269601558</v>
       </c>
       <c r="C66">
-        <v>-0.0452594177219043</v>
+        <v>-0.01444749357640022</v>
       </c>
       <c r="D66">
-        <v>-0.1216856973377291</v>
+        <v>-0.1437872538681753</v>
       </c>
       <c r="E66">
-        <v>-0.08162679410035868</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06823189210567045</v>
+      </c>
+      <c r="F66">
+        <v>0.02851234395068764</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07370995188520532</v>
+        <v>0.06321366245016924</v>
       </c>
       <c r="C67">
-        <v>-0.03611084025869675</v>
+        <v>-0.002945950415552272</v>
       </c>
       <c r="D67">
-        <v>-0.01666600309998616</v>
+        <v>-0.0555802686979124</v>
       </c>
       <c r="E67">
-        <v>-0.0760344693148909</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01798528957753603</v>
+      </c>
+      <c r="F67">
+        <v>-0.03952154118448536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07651470124887971</v>
+        <v>0.1174978664839895</v>
       </c>
       <c r="C68">
-        <v>0.151909098071188</v>
+        <v>-0.02734217789843892</v>
       </c>
       <c r="D68">
-        <v>0.2329902931574677</v>
+        <v>0.260856649734123</v>
       </c>
       <c r="E68">
-        <v>-0.01402447508604466</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08527472627483006</v>
+      </c>
+      <c r="F68">
+        <v>0.02026373409092563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0338801109992876</v>
+        <v>0.03906331450549849</v>
       </c>
       <c r="C69">
-        <v>-0.009758175962106938</v>
+        <v>-0.0008770763644257407</v>
       </c>
       <c r="D69">
-        <v>0.01072931680927066</v>
+        <v>-0.008411178792237843</v>
       </c>
       <c r="E69">
-        <v>-0.0301579776058415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02386242837791396</v>
+      </c>
+      <c r="F69">
+        <v>-0.005658293443675485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02682107732337794</v>
+        <v>0.06216786781755478</v>
       </c>
       <c r="C70">
-        <v>-0.007945026133924435</v>
+        <v>0.02862214303243909</v>
       </c>
       <c r="D70">
-        <v>0.02967093911539685</v>
+        <v>-0.02899997885043071</v>
       </c>
       <c r="E70">
-        <v>-0.03649322124289375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.04847379713833135</v>
+      </c>
+      <c r="F70">
+        <v>-0.2338983234646645</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.08725524316939695</v>
+        <v>0.1366030004256923</v>
       </c>
       <c r="C71">
-        <v>0.1605942316068149</v>
+        <v>-0.0318411156835999</v>
       </c>
       <c r="D71">
-        <v>0.2540744348343829</v>
+        <v>0.2749527871089396</v>
       </c>
       <c r="E71">
-        <v>-0.02491180139332425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09517488290635923</v>
+      </c>
+      <c r="F71">
+        <v>0.02443948146901408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1333144113562125</v>
+        <v>0.1410939789004493</v>
       </c>
       <c r="C72">
-        <v>0.02754515011234003</v>
+        <v>-0.02488127713173179</v>
       </c>
       <c r="D72">
-        <v>0.005808500426845609</v>
+        <v>-0.001765123739290574</v>
       </c>
       <c r="E72">
-        <v>-0.01846469052070078</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0430551016412491</v>
+      </c>
+      <c r="F72">
+        <v>0.0297226674081434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2279790120048425</v>
+        <v>0.2022986843661622</v>
       </c>
       <c r="C73">
-        <v>0.01575322417377941</v>
+        <v>-0.01177436643027605</v>
       </c>
       <c r="D73">
-        <v>-0.02599694698032873</v>
+        <v>-0.01496596121875621</v>
       </c>
       <c r="E73">
-        <v>-0.05460039246518208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06571362158207522</v>
+      </c>
+      <c r="F73">
+        <v>0.02483047076907778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1104806963851134</v>
+        <v>0.0945826295977326</v>
       </c>
       <c r="C74">
-        <v>0.00642633552754029</v>
+        <v>-0.01216951911895938</v>
       </c>
       <c r="D74">
-        <v>-0.03760878650661772</v>
+        <v>-0.02018256950659024</v>
       </c>
       <c r="E74">
-        <v>-0.02725754797598381</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04855923503672428</v>
+      </c>
+      <c r="F74">
+        <v>0.05071169920370888</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1291095295233892</v>
+        <v>0.1291579758678982</v>
       </c>
       <c r="C75">
-        <v>-0.008513724843165862</v>
+        <v>-0.02655185090990813</v>
       </c>
       <c r="D75">
-        <v>-0.0538993167492144</v>
+        <v>-0.03320664377436622</v>
       </c>
       <c r="E75">
-        <v>-0.01984501841544417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06072568656552528</v>
+      </c>
+      <c r="F75">
+        <v>0.01465649459633212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01434703842498356</v>
+        <v>0.003106607276664126</v>
       </c>
       <c r="C76">
-        <v>0.009360538405523712</v>
+        <v>-0.0007625587018883775</v>
       </c>
       <c r="D76">
-        <v>0.01263037009843868</v>
+        <v>0.002214796193082919</v>
       </c>
       <c r="E76">
-        <v>-0.01149563592570418</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0004286974104826025</v>
+      </c>
+      <c r="F76">
+        <v>0.003995974902420931</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08134823700784403</v>
+        <v>0.07896886587667136</v>
       </c>
       <c r="C77">
-        <v>-0.060032345039816</v>
+        <v>-0.008636074360199959</v>
       </c>
       <c r="D77">
-        <v>-0.09668092451719852</v>
+        <v>-0.1191694890663096</v>
       </c>
       <c r="E77">
-        <v>0.01041410555239782</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03939144977663886</v>
+      </c>
+      <c r="F77">
+        <v>0.02876759506840119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.0905099546959714</v>
+        <v>0.1031649545237855</v>
       </c>
       <c r="C78">
-        <v>0.0933712898437917</v>
+        <v>-0.03985552887740319</v>
       </c>
       <c r="D78">
-        <v>-0.07475308308865104</v>
+        <v>-0.1174098139075124</v>
       </c>
       <c r="E78">
-        <v>-0.1781358297902541</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07960335840815073</v>
+      </c>
+      <c r="F78">
+        <v>0.05880410811757264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.141665961269707</v>
+        <v>0.1641046997017969</v>
       </c>
       <c r="C79">
-        <v>0.009752086400266561</v>
+        <v>-0.0205304600334331</v>
       </c>
       <c r="D79">
-        <v>-0.06847273313327436</v>
+        <v>-0.01925957041460429</v>
       </c>
       <c r="E79">
-        <v>-0.0001309268225695742</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.04998635481415258</v>
+      </c>
+      <c r="F79">
+        <v>0.006316966769122744</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08395539305215152</v>
+        <v>0.08144983971915301</v>
       </c>
       <c r="C80">
-        <v>-0.05535461037919891</v>
+        <v>0.0007278054289065812</v>
       </c>
       <c r="D80">
-        <v>-0.05127882622481331</v>
+        <v>-0.05682915385453189</v>
       </c>
       <c r="E80">
-        <v>-0.06131560518113643</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03548722860636348</v>
+      </c>
+      <c r="F80">
+        <v>-0.02643256415405303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1457117405343722</v>
+        <v>0.1232051991173022</v>
       </c>
       <c r="C81">
-        <v>-0.008336264675520065</v>
+        <v>-0.03033682304443245</v>
       </c>
       <c r="D81">
-        <v>-0.07130934916461805</v>
+        <v>-0.0176020183510027</v>
       </c>
       <c r="E81">
-        <v>-0.03580452879210354</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06021553924359905</v>
+      </c>
+      <c r="F81">
+        <v>0.01042475327465893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.171532370002161</v>
+        <v>0.164230945939615</v>
       </c>
       <c r="C82">
-        <v>-0.03504491388309144</v>
+        <v>-0.0225411692163802</v>
       </c>
       <c r="D82">
-        <v>-0.0518764502093871</v>
+        <v>-0.009189398293545103</v>
       </c>
       <c r="E82">
-        <v>-0.02904140546532902</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03322680452224909</v>
+      </c>
+      <c r="F82">
+        <v>0.07124468318596835</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07903794654184694</v>
+        <v>0.06205757234677706</v>
       </c>
       <c r="C83">
-        <v>-0.03160344252771666</v>
+        <v>-0.003133875563976286</v>
       </c>
       <c r="D83">
-        <v>-0.02843773064116156</v>
+        <v>-0.05002153100375317</v>
       </c>
       <c r="E83">
-        <v>0.04005384804966745</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.005737123210853714</v>
+      </c>
+      <c r="F83">
+        <v>-0.03974198705300861</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07118575248139161</v>
+        <v>0.05881330484802016</v>
       </c>
       <c r="C84">
-        <v>-0.01550526242356081</v>
+        <v>-0.01069440292422307</v>
       </c>
       <c r="D84">
-        <v>-0.003840524895894818</v>
+        <v>-0.06745263757118572</v>
       </c>
       <c r="E84">
-        <v>0.009993800316671176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.005054173854118788</v>
+      </c>
+      <c r="F84">
+        <v>0.006794057526421061</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1268859818143608</v>
+        <v>0.1386847906955415</v>
       </c>
       <c r="C85">
-        <v>-0.001649114008290564</v>
+        <v>-0.02629217004510796</v>
       </c>
       <c r="D85">
-        <v>-0.03272285312136586</v>
+        <v>-0.013443127689252</v>
       </c>
       <c r="E85">
-        <v>-0.01339364131464335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.04095722397264422</v>
+      </c>
+      <c r="F85">
+        <v>0.04570903358397273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1318979624599861</v>
+        <v>0.0957495325063181</v>
       </c>
       <c r="C86">
-        <v>0.2484288889482145</v>
+        <v>0.005510565917120849</v>
       </c>
       <c r="D86">
-        <v>-0.1980698305752424</v>
+        <v>-0.03452761758545237</v>
       </c>
       <c r="E86">
-        <v>0.8860380886572831</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1663163155869989</v>
+      </c>
+      <c r="F86">
+        <v>-0.8988043533910531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1138987448999682</v>
+        <v>0.09604167652498928</v>
       </c>
       <c r="C87">
-        <v>-0.1033269985569236</v>
+        <v>-0.02198916415144277</v>
       </c>
       <c r="D87">
-        <v>-0.02974875601281121</v>
+        <v>-0.09390504987843405</v>
       </c>
       <c r="E87">
-        <v>-0.004393312206178853</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05427795971007246</v>
+      </c>
+      <c r="F87">
+        <v>0.0679945952977915</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.046732183361541</v>
+        <v>0.06095840157091289</v>
       </c>
       <c r="C88">
-        <v>0.001068663072405114</v>
+        <v>-0.002449963453603846</v>
       </c>
       <c r="D88">
-        <v>-0.02957116295546746</v>
+        <v>-0.05076687272057023</v>
       </c>
       <c r="E88">
-        <v>-0.04077141223465157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02603446619197208</v>
+      </c>
+      <c r="F88">
+        <v>0.009658921663923185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1361105301192305</v>
+        <v>0.1354991428758748</v>
       </c>
       <c r="C89">
-        <v>0.2082259898365113</v>
+        <v>-0.009698020037353308</v>
       </c>
       <c r="D89">
-        <v>0.3069665670155303</v>
+        <v>0.2530620655693261</v>
       </c>
       <c r="E89">
-        <v>-0.007937827782055559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08912563713673029</v>
+      </c>
+      <c r="F89">
+        <v>0.007132597292991637</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.09938680077331898</v>
+        <v>0.1483944221539543</v>
       </c>
       <c r="C90">
-        <v>0.162933873783145</v>
+        <v>-0.02749014975016831</v>
       </c>
       <c r="D90">
-        <v>0.2476507960699666</v>
+        <v>0.2664229942124111</v>
       </c>
       <c r="E90">
-        <v>-0.01208388688855535</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1093420736002302</v>
+      </c>
+      <c r="F90">
+        <v>0.009699080309927097</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0891102232277337</v>
+        <v>0.1197747873611223</v>
       </c>
       <c r="C91">
-        <v>0.001844958754055988</v>
+        <v>-0.01697634151472092</v>
       </c>
       <c r="D91">
-        <v>-0.03186870994411292</v>
+        <v>0.009847718535409476</v>
       </c>
       <c r="E91">
-        <v>0.004907880527742047</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05792363549518709</v>
+      </c>
+      <c r="F91">
+        <v>-0.01196454647365937</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1191093827237631</v>
+        <v>0.1501025748796543</v>
       </c>
       <c r="C92">
-        <v>0.1680731807498252</v>
+        <v>-0.01897942311606002</v>
       </c>
       <c r="D92">
-        <v>0.2845957668265908</v>
+        <v>0.2901905119629539</v>
       </c>
       <c r="E92">
-        <v>-0.00199573810310437</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1024804045503758</v>
+      </c>
+      <c r="F92">
+        <v>0.003910126611073585</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.0989712415528093</v>
+        <v>0.1517478881288558</v>
       </c>
       <c r="C93">
-        <v>0.1822000108107366</v>
+        <v>-0.0235729967454006</v>
       </c>
       <c r="D93">
-        <v>0.2763953048019885</v>
+        <v>0.2658247587675465</v>
       </c>
       <c r="E93">
-        <v>0.001515688595456833</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07657196712645863</v>
+      </c>
+      <c r="F93">
+        <v>0.009965637392569004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1514251542737149</v>
+        <v>0.1322904523317117</v>
       </c>
       <c r="C94">
-        <v>-0.004356068601362733</v>
+        <v>-0.02369292299841774</v>
       </c>
       <c r="D94">
-        <v>-0.04599704241515401</v>
+        <v>-0.04471012198624201</v>
       </c>
       <c r="E94">
-        <v>-0.07179146966795009</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06105084902396354</v>
+      </c>
+      <c r="F94">
+        <v>0.03372293943621249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1146486416607624</v>
+        <v>0.1258647800128371</v>
       </c>
       <c r="C95">
-        <v>-0.006108448821896885</v>
+        <v>-0.004703370153047331</v>
       </c>
       <c r="D95">
-        <v>-0.04010368293650801</v>
+        <v>-0.09285187193782644</v>
       </c>
       <c r="E95">
-        <v>-0.04067540631401273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04618623983201527</v>
+      </c>
+      <c r="F95">
+        <v>-0.009882756165125689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01493490841647413</v>
+        <v>0.09912101975030566</v>
       </c>
       <c r="C96">
-        <v>-0.00212535731830276</v>
+        <v>0.9888030233430978</v>
       </c>
       <c r="D96">
-        <v>-0.001335843375414243</v>
+        <v>0.03475682533073284</v>
       </c>
       <c r="E96">
-        <v>-0.0006954465771367207</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05787724674305079</v>
+      </c>
+      <c r="F96">
+        <v>0.04210679410927352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1729565774187833</v>
+        <v>0.1891904763084162</v>
       </c>
       <c r="C97">
-        <v>0.03940747816841478</v>
+        <v>0.00941097956616513</v>
       </c>
       <c r="D97">
-        <v>-0.03028473491372072</v>
+        <v>0.01930064362136976</v>
       </c>
       <c r="E97">
-        <v>-0.04616593103613794</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.009251242894178061</v>
+      </c>
+      <c r="F97">
+        <v>-0.09906385519768723</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2543224125582336</v>
+        <v>0.2057413621521166</v>
       </c>
       <c r="C98">
-        <v>-0.02369424791064353</v>
+        <v>-0.007204764382233788</v>
       </c>
       <c r="D98">
-        <v>0.03295151789906389</v>
+        <v>-0.008154656220197509</v>
       </c>
       <c r="E98">
-        <v>0.09556738021921052</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09575962961670402</v>
+      </c>
+      <c r="F98">
+        <v>-0.100320879959592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04924992266147316</v>
+        <v>0.05553736822560578</v>
       </c>
       <c r="C99">
-        <v>0.01819566009724675</v>
+        <v>0.004296741704585857</v>
       </c>
       <c r="D99">
-        <v>-0.0009485874043880857</v>
+        <v>-0.03787625339697468</v>
       </c>
       <c r="E99">
-        <v>-0.05144837667310493</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02488420621145395</v>
+      </c>
+      <c r="F99">
+        <v>0.003433014939665658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1208099090819198</v>
+        <v>0.1238989402954337</v>
       </c>
       <c r="C100">
-        <v>-0.7811108117587043</v>
+        <v>0.0518582801721961</v>
       </c>
       <c r="D100">
-        <v>0.486717558005773</v>
+        <v>-0.3446949411631539</v>
       </c>
       <c r="E100">
-        <v>0.2601175928632913</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8936534677084401</v>
+      </c>
+      <c r="F100">
+        <v>-0.09050070205985561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02911749255014057</v>
+        <v>0.02707660481555978</v>
       </c>
       <c r="C101">
-        <v>-0.01074617200378185</v>
+        <v>-0.008339919749566537</v>
       </c>
       <c r="D101">
-        <v>-0.003078352028856638</v>
+        <v>-0.0313075490568057</v>
       </c>
       <c r="E101">
-        <v>-0.008999515182906535</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01102416655606606</v>
+      </c>
+      <c r="F101">
+        <v>-0.01406421774587325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
